--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -815,7 +815,8 @@
     <t>Micro.Microbiology.MycologyReportStatus</t>
   </si>
   <si>
-    <t>Documents.DocumentCompletionStatus,LabOrder.Result.ResultStatus</t>
+    <t>Documents.DocumentCompletionStatus
+LabOrder.Result.ResultStatus</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1153,7 +1154,25 @@
     <t>844: reference based on PATIENT - LABORATORY REFERENCE &gt; LAB DATA - LRDFN (2-63 &gt; 63-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.LRDFN,Micro.AntibioticSensitivityComment.LRDFN,Micro.BacteriologyReports.LRDFN,Micro.MicroAntibioticLevel.LRDFN,Micro.MicroAudit.LRDFN,Micro.Microbiology.LRDFN,Micro.MicroOrderedTest.LRDFN,Micro.MicroSterilityResults.LRDFN,Micro.MycobacteriologyReports.LRDFN,Micro.Mycology.LRDFN,Micro.MycologyReports.LRDFN,Micro.Parasitology.LRDFN,Micro.ParasitologyReports.LRDFN,Micro.ParasitologyStage.LRDFN,Micro.Virology.LRDFN,Micro.VirologyReports.LRDFN,Pathology.Autopsy.LRDFN,Pathology.CytoOrganTissueFunction.StaffIEN,SStaff.SMicroOrderedTest.LRDFN</t>
+    <t>Micro.AntibioticSensitivity.LRDFN
+Micro.AntibioticSensitivityComment.LRDFN
+Micro.BacteriologyReports.LRDFN
+Micro.MicroAntibioticLevel.LRDFN
+Micro.MicroAudit.LRDFN
+Micro.Microbiology.LRDFN
+Micro.MicroOrderedTest.LRDFN
+Micro.MicroSterilityResults.LRDFN
+Micro.MycobacteriologyReports.LRDFN
+Micro.Mycology.LRDFN
+Micro.MycologyReports.LRDFN
+Micro.Parasitology.LRDFN
+Micro.ParasitologyReports.LRDFN
+Micro.ParasitologyStage.LRDFN
+Micro.Virology.LRDFN
+Micro.VirologyReports.LRDFN
+Pathology.Autopsy.LRDFN
+Pathology.CytoOrganTissueFunction.StaffIEN
+SStaff.SMicroOrderedTest.LRDFN</t>
   </si>
   <si>
     <t>Patient.Extension[PatientExtension].VeteranLrdfn</t>
@@ -1288,7 +1307,23 @@
     <t>1450: source value based on MICROBIOLOGY - DATE/TIME SPECIMEN TAKEN (63.05-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.SpecimenTakenDateTime,Micro.AntibioticSensitivityComment.SpecimenTakenDateTime,Micro.BacteriologyReports.SpecimenTakenDateTime,Micro.MicroAntibioticLevel.SpecimenTakenDateTime,Micro.MicroAudit.SpecimenTakenDateTime,Micro.Microbiology.SpecimenTakenDateTime,Micro.MicroOrderedTest.SpecimenTakenDateTime,Micro.MicroSterilityResults.SpecimenTakenDateTime,Micro.MycobacteriologyReports.SpecimenTakenDateTime,Micro.Mycology.SpecimenTakenDateTime,Micro.MycologyReports.SpecimenTakenDateTime,Micro.Parasitology.SpecimenTakenDateTime,Micro.ParasitologyReports.SpecimenTakenDateTime,Micro.ParasitologyStage.SpecimenTakenDateTime,Micro.Virology.SpecimenTakenDateTime,Micro.VirologyReports.SpecimenTakenDateTime,SStaff.SMicroOrderedTest.SpecimenTakenDateTime</t>
+    <t>Micro.AntibioticSensitivity.SpecimenTakenDateTime
+Micro.AntibioticSensitivityComment.SpecimenTakenDateTime
+Micro.BacteriologyReports.SpecimenTakenDateTime
+Micro.MicroAntibioticLevel.SpecimenTakenDateTime
+Micro.MicroAudit.SpecimenTakenDateTime
+Micro.Microbiology.SpecimenTakenDateTime
+Micro.MicroOrderedTest.SpecimenTakenDateTime
+Micro.MicroSterilityResults.SpecimenTakenDateTime
+Micro.MycobacteriologyReports.SpecimenTakenDateTime
+Micro.Mycology.SpecimenTakenDateTime
+Micro.MycologyReports.SpecimenTakenDateTime
+Micro.Parasitology.SpecimenTakenDateTime
+Micro.ParasitologyReports.SpecimenTakenDateTime
+Micro.ParasitologyStage.SpecimenTakenDateTime
+Micro.Virology.SpecimenTakenDateTime
+Micro.VirologyReports.SpecimenTakenDateTime
+SStaff.SMicroOrderedTest.SpecimenTakenDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1313,7 +1348,8 @@
     <t>Micro.Microbiology.ReportCompletedDateTime</t>
   </si>
   <si>
-    <t>Documents.ToTime,LabOrder.Result.ResultTime</t>
+    <t>Documents.ToTime
+LabOrder.Result.ResultTime</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1373,7 +1409,8 @@
     <t>Micro.Microbiology.AccessioningInstitutionIEN</t>
   </si>
   <si>
-    <t>Documents.EnteredAt,LabOrder.Result.EnteredAt</t>
+    <t>Documents.EnteredAt
+LabOrder.Result.EnteredAt</t>
   </si>
   <si>
     <t>Observation.performer:va-by</t>
@@ -1392,7 +1429,9 @@
     <t>Micro.Microbiology.VerifyingStaffIEN</t>
   </si>
   <si>
-    <t>Documents.Clinician,Documents.Extension[DocumentExtension].CareProviders,LabOrder.Result.VerifiedBy</t>
+    <t>Documents.Clinician
+Documents.Extension[DocumentExtension].CareProviders
+LabOrder.Result.VerifiedBy</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -2328,8 +2367,8 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="216.01953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.15234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.68359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="212.10546875" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyMycologyObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
